--- a/Concept.xlsx
+++ b/Concept.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyGame(Unity)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\23CI0538\3DGame01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B308F3C-6BE8-4630-9FC5-192AE70E48DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2112267-1C64-4D4E-B7BC-6AF2E5B9CA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B1A70B28-2D95-49BA-BBD1-E30D932C0B64}"/>
+    <workbookView xWindow="16875" yWindow="0" windowWidth="12045" windowHeight="10155" xr2:uid="{B1A70B28-2D95-49BA-BBD1-E30D932C0B64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>対戦</t>
   </si>
@@ -48,9 +48,6 @@
     <t>主人公(プレイヤー)</t>
   </si>
   <si>
-    <t>大鳥こはくちゃんも登場させたい(サブキャラ、観客？、モブキャラ)</t>
-  </si>
-  <si>
     <t>ゲームシステム</t>
   </si>
   <si>
@@ -70,23 +67,6 @@
   </si>
   <si>
     <t>あったら、Happy End</t>
-  </si>
-  <si>
-    <r>
-      <t>コンセプト:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>誰にもプレイできる(難しくても楽しい)　イライラさせない　クリア後に楽しかったな～と思えるゲームに</t>
-    </r>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -269,12 +249,62 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t>コンセプト:特にストレスが溜まっている人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(難しくても楽しい)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>向け</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　イライラさせない　クリア後に楽しかったな～と思えるゲームに</t>
+    </r>
+    <rPh sb="6" eb="7">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +323,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -642,50 +679,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D7FEF5-004C-4DCD-BC2F-4B8F933435BC}">
-  <dimension ref="A1:A44"/>
+  <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:A44"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="62" customWidth="1"/>
+    <col min="1" max="1" width="90.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
@@ -695,12 +732,12 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
@@ -715,7 +752,7 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
@@ -725,7 +762,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
@@ -733,64 +770,64 @@
         <v>4</v>
       </c>
     </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.4">
@@ -803,14 +840,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Concept.xlsx
+++ b/Concept.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\23CI0538\3DGame01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2112267-1C64-4D4E-B7BC-6AF2E5B9CA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB8EF06-E65E-4127-827F-252D03343B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16875" yWindow="0" windowWidth="12045" windowHeight="10155" xr2:uid="{B1A70B28-2D95-49BA-BBD1-E30D932C0B64}"/>
+    <workbookView xWindow="1065" yWindow="0" windowWidth="12045" windowHeight="10155" xr2:uid="{B1A70B28-2D95-49BA-BBD1-E30D932C0B64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -681,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D7FEF5-004C-4DCD-BC2F-4B8F933435BC}">
   <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
